--- a/docs/StructureDefinition-VAReferralProvenance.xlsx
+++ b/docs/StructureDefinition-VAReferralProvenance.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="327">
   <si>
     <t>Path</t>
   </si>
@@ -323,253 +323,250 @@
     <t>Provenance.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Provenance.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Target Reference(s) (usually version specific)</t>
+  </si>
+  <si>
+    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
+  </si>
+  <si>
+    <t>Target references are usually version specific, but may not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource may not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
+  </si>
+  <si>
+    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
+  </si>
+  <si>
+    <t>Entity Created/Updated</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.reference</t>
+  </si>
+  <si>
+    <t>Provenance.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>When the activity occurred</t>
+  </si>
+  <si>
+    <t>The period during which the activity occurred.</t>
+  </si>
+  <si>
+    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
+  </si>
+  <si>
+    <t>./effectiveTime[type=IVL_TS]</t>
+  </si>
+  <si>
+    <t>Activity.startTime &amp; Activity.endTime</t>
+  </si>
+  <si>
+    <t>when.done</t>
+  </si>
+  <si>
+    <t>Provenance.recorded</t>
+  </si>
+  <si>
+    <t>DATE/TIME OF ACTUAL ACTIVITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>REQUEST PROCESSING ACTIVITY</t>
+  </si>
+  <si>
+    <t>The Date and time the actual activity was done.  This may be different  than the DATE/TIME OF ACTION ENTRY for certain actions.</t>
+  </si>
+  <si>
+    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
+  </si>
+  <si>
+    <t>REQUEST/CONSULTATION @DATE/TIME OF ACTUAL ACTIVITY 123.02-2</t>
+  </si>
+  <si>
+    <t>unique(./participation[isNormalParticipation() and typeCode=AUT]/time[type=TS])</t>
+  </si>
+  <si>
+    <t>Activity.when</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>AuditEvent.recorded</t>
+  </si>
+  <si>
+    <t>Provenance.policy</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
+  </si>
+  <si>
+    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
+  </si>
+  <si>
+    <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.policy</t>
+  </si>
+  <si>
+    <t>Provenance.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant.</t>
+  </si>
+  <si>
+    <t>unique(./participation[isNormalParticipation() and typeCode=LOC]/role[isNormalRole() and subsumes(SDLOC, classCode)]/player[isNormalEntity and classCode="LOC" and determinerCode="INST"]</t>
+  </si>
+  <si>
+    <t>Activity.location</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.location</t>
+  </si>
+  <si>
+    <t>Provenance.reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Reason the activity is occurring</t>
+  </si>
+  <si>
+    <t>The reason that the activity was taking place.</t>
+  </si>
+  <si>
+    <t>The reason the activity took place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v3-PurposeOfUse</t>
+  </si>
+  <si>
+    <t>unique(./reasonCode)</t>
+  </si>
+  <si>
+    <t>Activity.Activity</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>AuditEvent.purposeOfEvent</t>
+  </si>
+  <si>
+    <t>Provenance.activity</t>
+  </si>
+  <si>
+    <t>Activity that occurred</t>
+  </si>
+  <si>
+    <t>An activity is something that occurs over a period of time and acts upon or with entities; it may include consuming, processing, transforming, modifying, relocating, using, or generating entities.</t>
+  </si>
+  <si>
+    <t>The activity that took place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
+  </si>
+  <si>
+    <t>Act.code</t>
+  </si>
+  <si>
+    <t>Provenance.activity.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Provenance.activity.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Provenance.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Provenance.target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Target Reference(s) (usually version specific)</t>
-  </si>
-  <si>
-    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
-  </si>
-  <si>
-    <t>Target references are usually version specific, but may not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource may not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
-  </si>
-  <si>
-    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
-  </si>
-  <si>
-    <t>Entity Created/Updated</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.reference</t>
-  </si>
-  <si>
-    <t>Provenance.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>When the activity occurred</t>
-  </si>
-  <si>
-    <t>The period during which the activity occurred.</t>
-  </si>
-  <si>
-    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
-  </si>
-  <si>
-    <t>./effectiveTime[type=IVL_TS]</t>
-  </si>
-  <si>
-    <t>Activity.startTime &amp; Activity.endTime</t>
-  </si>
-  <si>
-    <t>when.done</t>
-  </si>
-  <si>
-    <t>Provenance.recorded</t>
-  </si>
-  <si>
-    <t>DATE/TIME OF ACTUAL ACTIVITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>REQUEST PROCESSING ACTIVITY</t>
-  </si>
-  <si>
-    <t>The Date and time the actual activity was done.  This may be different  than the DATE/TIME OF ACTION ENTRY for certain actions.</t>
-  </si>
-  <si>
-    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
-  </si>
-  <si>
-    <t>REQUEST/CONSULTATION @DATE/TIME OF ACTUAL ACTIVITY 123.02-2</t>
-  </si>
-  <si>
-    <t>unique(./participation[isNormalParticipation() and typeCode=AUT]/time[type=TS])</t>
-  </si>
-  <si>
-    <t>Activity.when</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>AuditEvent.recorded</t>
-  </si>
-  <si>
-    <t>Provenance.policy</t>
-  </si>
-  <si>
-    <t>Policy or plan the activity was defined by</t>
-  </si>
-  <si>
-    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
-  </si>
-  <si>
-    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
-  </si>
-  <si>
-    <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.policy</t>
-  </si>
-  <si>
-    <t>Provenance.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Where the activity occurred, if relevant</t>
-  </si>
-  <si>
-    <t>Where the activity occurred, if relevant.</t>
-  </si>
-  <si>
-    <t>unique(./participation[isNormalParticipation() and typeCode=LOC]/role[isNormalRole() and subsumes(SDLOC, classCode)]/player[isNormalEntity and classCode="LOC" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>Activity.location</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.location</t>
-  </si>
-  <si>
-    <t>Provenance.reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Reason the activity is occurring</t>
-  </si>
-  <si>
-    <t>The reason that the activity was taking place.</t>
-  </si>
-  <si>
-    <t>The reason the activity took place.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v3-PurposeOfUse</t>
-  </si>
-  <si>
-    <t>unique(./reasonCode)</t>
-  </si>
-  <si>
-    <t>Activity.Activity</t>
-  </si>
-  <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>AuditEvent.purposeOfEvent</t>
-  </si>
-  <si>
-    <t>Provenance.activity</t>
-  </si>
-  <si>
-    <t>Activity that occurred</t>
-  </si>
-  <si>
-    <t>An activity is something that occurs over a period of time and acts upon or with entities; it may include consuming, processing, transforming, modifying, relocating, using, or generating entities.</t>
-  </si>
-  <si>
-    <t>The activity that took place.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
-  </si>
-  <si>
-    <t>Act.code</t>
-  </si>
-  <si>
-    <t>Provenance.activity.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Provenance.activity.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -2153,7 +2150,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2172,15 +2169,17 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>44</v>
@@ -2217,14 +2216,16 @@
         <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>103</v>
@@ -2245,7 +2246,7 @@
         <v>44</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>44</v>
@@ -2263,7 +2264,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2282,16 +2283,16 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2341,7 +2342,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2373,7 +2374,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2396,16 +2397,16 @@
         <v>54</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2455,7 +2456,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>53</v>
@@ -2473,21 +2474,21 @@
         <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2510,16 +2511,16 @@
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2569,7 +2570,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2587,13 +2588,13 @@
         <v>44</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>44</v>
@@ -2601,14 +2602,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>53</v>
@@ -2626,16 +2627,16 @@
         <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2685,7 +2686,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>53</v>
@@ -2700,24 +2701,24 @@
         <v>44</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2743,13 +2744,13 @@
         <v>66</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2799,7 +2800,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2817,7 +2818,7 @@
         <v>44</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>44</v>
@@ -2826,12 +2827,12 @@
         <v>44</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2854,13 +2855,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2911,7 +2912,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2929,21 +2930,21 @@
         <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2966,13 +2967,13 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3002,10 +3003,10 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -3023,7 +3024,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3041,21 +3042,21 @@
         <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3078,13 +3079,13 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3114,60 +3115,60 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="AL17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3190,13 +3191,13 @@
         <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3247,7 +3248,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3265,7 +3266,7 @@
         <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>44</v>
@@ -3279,11 +3280,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3302,16 +3303,16 @@
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3349,19 +3350,19 @@
         <v>44</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="AB19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3379,7 +3380,7 @@
         <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>44</v>
@@ -3393,7 +3394,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3419,16 +3420,16 @@
         <v>66</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3477,25 +3478,25 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
@@ -3509,7 +3510,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3532,16 +3533,16 @@
         <v>54</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3591,25 +3592,25 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>44</v>
@@ -3623,14 +3624,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E22" t="s" s="2">
         <v>42</v>
@@ -3651,14 +3652,14 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -3707,25 +3708,25 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>44</v>
@@ -3739,7 +3740,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3762,17 +3763,17 @@
         <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -3821,25 +3822,25 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>44</v>
@@ -3853,7 +3854,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3876,19 +3877,19 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -3937,25 +3938,25 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
@@ -3969,7 +3970,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3992,19 +3993,19 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4053,7 +4054,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>53</v>
@@ -4065,27 +4066,27 @@
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4108,13 +4109,13 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4165,7 +4166,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4183,7 +4184,7 @@
         <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>44</v>
@@ -4197,11 +4198,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4220,16 +4221,16 @@
         <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4279,7 +4280,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4297,7 +4298,7 @@
         <v>44</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
@@ -4311,11 +4312,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4334,16 +4335,16 @@
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4393,7 +4394,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4425,7 +4426,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4448,16 +4449,16 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4486,11 +4487,11 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4507,7 +4508,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4525,21 +4526,21 @@
         <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4562,13 +4563,13 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4619,7 +4620,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4637,7 +4638,7 @@
         <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
@@ -4651,11 +4652,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4674,16 +4675,16 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4721,19 +4722,19 @@
         <v>44</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="AB31" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4751,7 +4752,7 @@
         <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
@@ -4765,7 +4766,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4788,19 +4789,19 @@
         <v>54</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -4849,7 +4850,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4867,7 +4868,7 @@
         <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
@@ -4881,7 +4882,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4904,13 +4905,13 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4961,7 +4962,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4979,7 +4980,7 @@
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
@@ -4993,11 +4994,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5016,16 +5017,16 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5063,19 +5064,19 @@
         <v>44</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="AB34" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5093,7 +5094,7 @@
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
@@ -5107,7 +5108,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5133,23 +5134,23 @@
         <v>66</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>44</v>
@@ -5191,25 +5192,25 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
@@ -5223,7 +5224,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5246,16 +5247,16 @@
         <v>54</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5305,25 +5306,25 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
@@ -5337,7 +5338,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5363,21 +5364,21 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>44</v>
@@ -5419,7 +5420,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5437,7 +5438,7 @@
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>44</v>
@@ -5451,7 +5452,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5474,17 +5475,17 @@
         <v>54</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5533,25 +5534,25 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>44</v>
@@ -5565,7 +5566,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5588,19 +5589,19 @@
         <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5649,25 +5650,25 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>44</v>
@@ -5681,7 +5682,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5704,19 +5705,19 @@
         <v>54</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -5765,25 +5766,25 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
@@ -5797,7 +5798,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5820,13 +5821,13 @@
         <v>54</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5865,41 +5866,41 @@
         <v>44</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB41" s="2"/>
       <c r="AC41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD41" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AE41" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -5907,16 +5908,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B42" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="E42" t="s" s="2">
         <v>53</v>
@@ -5934,13 +5935,13 @@
         <v>54</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5991,7 +5992,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>53</v>
@@ -6006,16 +6007,16 @@
         <v>44</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6023,7 +6024,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6046,13 +6047,13 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6103,7 +6104,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6121,7 +6122,7 @@
         <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
@@ -6135,7 +6136,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6158,13 +6159,13 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6191,52 +6192,52 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="X44" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="X44" t="s" s="2">
+      <c r="Y44" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>44</v>
@@ -6247,7 +6248,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6270,16 +6271,16 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6329,7 +6330,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6341,27 +6342,27 @@
         <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>298</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6384,13 +6385,13 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6441,7 +6442,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6459,7 +6460,7 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
@@ -6473,11 +6474,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6496,16 +6497,16 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6555,7 +6556,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6573,7 +6574,7 @@
         <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
@@ -6587,11 +6588,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6610,16 +6611,16 @@
         <v>54</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6669,7 +6670,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6701,7 +6702,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6727,10 +6728,10 @@
         <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6757,63 +6758,63 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="X49" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="X49" t="s" s="2">
+      <c r="Y49" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="Y49" t="s" s="2">
+      <c r="Z49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6836,16 +6837,16 @@
         <v>54</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6895,7 +6896,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>53</v>
@@ -6913,21 +6914,21 @@
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6953,13 +6954,13 @@
         <v>44</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7009,7 +7010,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7027,7 +7028,7 @@
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>44</v>
@@ -7041,7 +7042,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7064,13 +7065,13 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7121,7 +7122,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7139,7 +7140,7 @@
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>44</v>
